--- a/biology/Botanique/Sorbaria_kirilowii/Sorbaria_kirilowii.xlsx
+++ b/biology/Botanique/Sorbaria_kirilowii/Sorbaria_kirilowii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sorbaire de Kirilov, ou fausse spirée de Kirilov (Sorbaria kirilowii), est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un arbuste  originaire de Chine.
 Nom chinois : 华北珍珠梅.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sorbaire de Kirilov a les caractéristiques suivantes :
 il s'agit d'un arbuste caduc, vivace, de taille plus importante que les autres espèces du genre : jusqu'à 6 m de haut ;
@@ -524,7 +538,7 @@
 elles ont cinq sépales, cinq pétales, cinq pistils et des étamines moins nombreuses que la moyenne du genre (environ 20) ;
 les étamines sont la même taille que les pétales : il s'agit de l'élément caractéristique de cette espèce ;
 les fruits sont des follicules déhiscents avec peu de graines (caractéristique de la sous-famille).
-Sorbaria kirilowii compte 36 chromosomes[1].
+Sorbaria kirilowii compte 36 chromosomes.
 </t>
         </is>
       </c>
@@ -553,7 +567,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire de Chine : Gansu, Guizhou, Hebei, Henan, Nei Monggol, Qinghai, Shaanxi, Shandong, Shanxi, Xinjiang, Xizang, Yunnan, mais aussi de Corée. Elle est largement répandue actuellement dans tous les pays à climat tempéré comme plante d'ornement.
 Son habitat naturel est semi-forestier, sur sol frais en milieu non aride. Elle prospère en lisière de forêts et en ripisylves.
@@ -585,7 +601,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cette espèce avait été placée par Eduard August von Regel &amp; Heinrich Sylvester Theodor Tiling en 1859 dans le genre Spirea : Spirea kirilowii Regel &amp; Tiling, en raison de son affinité avec les spirées. Ils l'ont dédiée au botaniste russe Ivan Petrovich Kirilov.
 En 1879, Carl Maximowicz la reclasse dans le genre Sorbaria : Sorbaria kirilowii.
@@ -621,7 +639,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce commence à connaître une diffusion comme plante ornementale en France, pour sa floraison, qui est l'une des plus belles du genre, et sa robustesse (elle résiste à des températures de -20 °C).
 			Fleurs
